--- a/static/fields/deviceclass_reference.xlsx
+++ b/static/fields/deviceclass_reference.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590A86F-EE82-5A41-9579-44604251D5E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="760" windowWidth="21880" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="6920" yWindow="760" windowWidth="21880" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="device_classification_fields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -117,6 +123,56 @@
 Value is one of the following
 Y = Device is implantable
 N = Device is not implantable</t>
+  </si>
+  <si>
+    <t>Same as above but with the codes replaced with a human readable description. Note that &amp; and and have been removed from the descriptions as they conflicted with the API syntax).
+This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>This is the proprietary name, or trade name, of the cleared device
+This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
+  </si>
+  <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>review_panel</t>
+  </si>
+  <si>
+    <t>A three-letter identifier assigned to a device category. Assignment is based upon the medical device classification designated under 21 CFR Parts 862-892, and the technology and intended use of the device. Occasionally these codes are changed over time.</t>
+  </si>
+  <si>
+    <t>Known as the “510(k) Review Panel” since 2014, this helps define the review division within CDRH in which the 510(k) would be reviewed, if it were reviewed today; this is derived from the procode and is always the same as the “Review Advisory Committee” field in the 510(k) database.</t>
+  </si>
+  <si>
+    <t>unclassified_reason</t>
+  </si>
+  <si>
+    <t>This indicates the reason why a device is unclassified (e.g. Pre-Amendment).
+Value is one of the following
+1 = Pre-Amendment
+2 = IDE
+3 = For Export Only
+4 = Unknown
+5 = Guidance Under Development
+6 = Enforcement Discretion
+7 = Not FDA Regulated</t>
+  </si>
+  <si>
+    <t>gmp_exempt_flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+An indication the device is exempt from Good Manufacturing Processes CFR 820. U.S. zip code of the Applicant. See here for more detail.
+Value is one of the following
+Y = Exempt due to Good Manufacturing Practice (GMP)/Quality System
+N = Not exempt due to Good Manufacturing Practice (GMP)/Quality System</t>
+  </si>
+  <si>
+    <t>Facility identifier assigned to facility by the FDA Office of Regulatory Affairs. The openfda section of each document is determined by looking at the product_code value.</t>
   </si>
   <si>
     <t>Regulation Medical Specialty is assigned based on the regulation (e.g. 21 CFR Part 888 is Orthopedic Devices) which is why Class 3 devices lack the “Regulation Medical Specialty” field. Two letters indicating the medical specialty panel responsible for reviewing the product. See link for further detail.
@@ -130,6 +186,7 @@
 HO = General Hospital
 HE = Hematology
 IM = Immunology
+MG = Medical Genetics
 MI = Microbiology
 NE = Neurology
 OB = Obstetrics/Gynecology
@@ -141,61 +198,11 @@
 SU = General, Plastic Surgery
 TX = Clinical Toxicology</t>
   </si>
-  <si>
-    <t>Same as above but with the codes replaced with a human readable description. Note that &amp; and and have been removed from the descriptions as they conflicted with the API syntax).
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
-  </si>
-  <si>
-    <t>device_name</t>
-  </si>
-  <si>
-    <t>This is the proprietary name, or trade name, of the cleared device
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
-  </si>
-  <si>
-    <t>product_code</t>
-  </si>
-  <si>
-    <t>review_panel</t>
-  </si>
-  <si>
-    <t>A three-letter identifier assigned to a device category. Assignment is based upon the medical device classification designated under 21 CFR Parts 862-892, and the technology and intended use of the device. Occasionally these codes are changed over time.</t>
-  </si>
-  <si>
-    <t>Known as the “510(k) Review Panel” since 2014, this helps define the review division within CDRH in which the 510(k) would be reviewed, if it were reviewed today; this is derived from the procode and is always the same as the “Review Advisory Committee” field in the 510(k) database.</t>
-  </si>
-  <si>
-    <t>unclassified_reason</t>
-  </si>
-  <si>
-    <t>This indicates the reason why a device is unclassified (e.g. Pre-Amendment).
-Value is one of the following
-1 = Pre-Amendment
-2 = IDE
-3 = For Export Only
-4 = Unknown
-5 = Guidance Under Development
-6 = Enforcement Discretion
-7 = Not FDA Regulated</t>
-  </si>
-  <si>
-    <t>gmp_exempt_flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-An indication the device is exempt from Good Manufacturing Processes CFR 820. U.S. zip code of the Applicant. See here for more detail.
-Value is one of the following
-Y = Exempt due to Good Manufacturing Practice (GMP)/Quality System
-N = Not exempt due to Good Manufacturing Practice (GMP)/Quality System</t>
-  </si>
-  <si>
-    <t>Facility identifier assigned to facility by the FDA Office of Regulatory Affairs. The openfda section of each document is determined by looking at the product_code value.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -709,6 +716,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1033,26 +1048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="105">
+    <row r="2" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1077,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="90">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="120">
+    <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="90">
+    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="360">
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
@@ -1148,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1159,10 +1172,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1173,62 +1186,62 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
+    <row r="15" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="150">
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="90">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1239,10 +1252,10 @@
         <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1255,8 +1268,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="21" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="42" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/static/fields/deviceclass_reference.xlsx
+++ b/static/fields/deviceclass_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B590A86F-EE82-5A41-9579-44604251D5E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8D8DF-8814-354A-8B84-B4E100A78C89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6920" yWindow="760" windowWidth="21880" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>regulation_number</t>
-  </si>
-  <si>
-    <t>Number of patients noted in the adverse event report. Almost always 1. May be empty if report_source_code contains Voluntary report.
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
   </si>
   <si>
     <t>The classification regulation in the Code of Federal Regulations (CFR) under which the device is identified, described, and formally classified (Code of Federal regulations Title 21, 862.00 through 892.00). The classification regulation covers various aspects of design, clinical evaluation, manufacturing, packaging, labeling, and postmarket surveillance of the specific medical device.
@@ -197,6 +193,16 @@
 RA = Radiology
 SU = General, Plastic Surgery
 TX = Clinical Toxicology</t>
+  </si>
+  <si>
+    <t>A risk based classification system for all medical devices ((Federal Food, Drug, and Cosmetic Act, section 513).
+Value is one of the following
+1 = Class I (low to moderate risk): general controls
+2 = Class II (moderate to high risk): general controls and special controls
+3 = Class III (high risk): general controls and Premarket Approval (PMA)
+U = Unclassified
+N = Not classified
+F = HDE</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1060,9 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1087,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
@@ -1125,43 +1133,43 @@
     </row>
     <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -1172,10 +1180,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1183,62 +1191,62 @@
         <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1252,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">

--- a/static/fields/deviceclass_reference.xlsx
+++ b/static/fields/deviceclass_reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denis.krylov/Projects/openFDA/open.fda.gov/static/fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA8D8DF-8814-354A-8B84-B4E100A78C89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6815D44-EF27-6140-AC0A-C3DDC157A8ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="760" windowWidth="21880" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="38340" windowHeight="20120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="device_classification_fields" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Field Name</t>
   </si>
@@ -203,6 +203,14 @@
 U = Unclassified
 N = Not classified
 F = HDE</t>
+  </si>
+  <si>
+    <t>summary_malfunction_reporting</t>
+  </si>
+  <si>
+    <t>The Voluntary Malfunction Summary Reporting Program allows participating companies to submit certain medical device malfunction reports in summary form on a quarterly basis.  The program applies to eligible devices regulated by the Center for Devices and Radiological Health (CDRH) and Center for Biologics Evaluation and Research (CBER), including device-led combination products.Value is one of the following:
+Eligible = 510(K)
+Ineligible = PMA</t>
   </si>
 </sst>
 </file>
@@ -1058,16 +1066,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="111" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
@@ -1131,146 +1139,157 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="170" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:4" ht="170" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
